--- a/biology/Médecine/Académie_de_l'OMS/Académie_de_l'OMS.xlsx
+++ b/biology/Médecine/Académie_de_l'OMS/Académie_de_l'OMS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_de_l%27OMS</t>
+          <t>Académie_de_l'OMS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Académie de l'OMS est un organisme de formation aux métiers de la santé dépendant de l'Organisation mondiale de la santé (OMS). Inaugurée le 27 septembre 2021[1] par Emmanuel Macron, président de la République française, et Tedros Adhanom Ghebreyesus, directeur général de l'OMS, elle doit ouvrir en 2024[1] dans un immeuble de sept étages construit pour l'occasion dans le quartier de Gerland, à Lyon.
-La docteure Agnès Buzyn a été nommée directrice exécutive de l’Académie et a pris ses fonctions le 16 août 2021[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Académie de l'OMS est un organisme de formation aux métiers de la santé dépendant de l'Organisation mondiale de la santé (OMS). Inaugurée le 27 septembre 2021 par Emmanuel Macron, président de la République française, et Tedros Adhanom Ghebreyesus, directeur général de l'OMS, elle doit ouvrir en 2024 dans un immeuble de sept étages construit pour l'occasion dans le quartier de Gerland, à Lyon.
+La docteure Agnès Buzyn a été nommée directrice exécutive de l’Académie et a pris ses fonctions le 16 août 2021.
 </t>
         </is>
       </c>
